--- a/trained_models_old_clean/MLP/pendigits/results_table.xlsx
+++ b/trained_models_old_clean/MLP/pendigits/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
+          <t>{'beta_1': 0.519094064086862, 'beta_2': 0.6599215566819873, 'epsilon': 0.5656267886268035, 'learning_rate': 'constant', 'momentum': 0.2626108832218125, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1670891885098651}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6126357918810749</v>
+        <v>0.6872498570611778</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8327615780445969</v>
+        <v>0.7804459691252144</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
+          <t>{'beta_1': 0.25121232420123485, 'beta_2': 0.9313630133329627, 'epsilon': 0.9920083131636438, 'learning_rate': 'invscaling', 'momentum': 0.5129053230612274, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.34769798866549106}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6829616923956546</v>
+        <v>0.3184676958261864</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7813036020583191</v>
+        <v>0.7624356775300172</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.7737918577774139, 'beta_2': 0.48461174858585965, 'epsilon': 0.6477652885395865, 'learning_rate': 'invscaling', 'momentum': 0.7378812839173013, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.09990807373006061}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7887364208118925</v>
+        <v>0.5920526014865638</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7278521289720954, 'beta_2': 0.6070971084472071, 'epsilon': 0.34189906689640803, 'learning_rate': 'invscaling', 'momentum': 0.1103371248730024, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6257109065192588}</t>
+          <t>{'beta_1': 0.8296426288894153, 'beta_2': 0.07166958492821525, 'epsilon': 0.8527711995999567, 'learning_rate': 'constant', 'momentum': 0.45489035346577167, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.648998663262847}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3290451686678102</v>
+        <v>0.440251572327044</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
+          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6906803887935964</v>
+        <v>0.6678101772441395</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
+          <t>{'beta_1': 0.75606418862158, 'beta_2': 0.31684939052321165, 'epsilon': 0.014631245255897577, 'learning_rate': 'constant', 'momentum': 0.6986299508481587, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.025737775583115297}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.6838193253287593</v>
+        <v>0.6452258433390509</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8868131348915925, 'beta_2': 0.6379705684637716, 'epsilon': 0.42956678369024237, 'learning_rate': 'adaptive', 'momentum': 0.7701281241915822, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7861884994650608}</t>
+          <t>{'beta_1': 0.19300643724429972, 'beta_2': 0.03311110089267319, 'epsilon': 0.5833754064563448, 'learning_rate': 'constant', 'momentum': 0.3405875997076052, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2402622011512725}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.707833047455689</v>
+        <v>0.76357918810749</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 7.362573367298308e-05, 'beta_2': 0.2539858490904201, 'epsilon': 0.7483515060430702, 'learning_rate': 'constant', 'momentum': 0.9682855167608868, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37554935508454257}</t>
+          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.7041166380789022</v>
+        <v>0.8001715265866209</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11644205381716893, 'beta_2': 0.3572813958133706, 'epsilon': 0.004650182000346301, 'learning_rate': 'invscaling', 'momentum': 0.3881690830118073, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3564398889443938}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.6483704974271012</v>
+        <v>0.4102344196683819</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.19386403055813542, 'beta_2': 0.9918938015730331, 'epsilon': 0.4995213809388588, 'learning_rate': 'constant', 'momentum': 0.6586040703899139, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.35909708773029625}</t>
+          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7206975414522584</v>
+        <v>0.7104059462550029</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
+          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7021154945683248</v>
+        <v>0.6240708976558034</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16007023585382313, 'beta_2': 0.6604563939965914, 'epsilon': 0.4398234890766623, 'learning_rate': 'adaptive', 'momentum': 0.3613056815897162, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8784926238627397}</t>
+          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7578616352201258</v>
+        <v>0.584333905088622</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
+          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7112635791881075</v>
+        <v>0.1043453401943968</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
+          <t>{'beta_1': 0.41710153336013517, 'beta_2': 0.5473750281257296, 'epsilon': 0.7167708411529455, 'learning_rate': 'constant', 'momentum': 0.29918021946326245, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4377852488597531}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.3516295025728988</v>
+        <v>0.8293310463121784</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16388054667706958, 'beta_2': 0.46110686039660415, 'epsilon': 0.05164037856454271, 'learning_rate': 'adaptive', 'momentum': 0.05720755875071437, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6741662803737272}</t>
+          <t>{'beta_1': 0.5464162891792802, 'beta_2': 0.8532828757804921, 'epsilon': 0.039163098458236005, 'learning_rate': 'invscaling', 'momentum': 0.7697890206778347, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.31538720413305543}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7341337907375644</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.026466768750532547, 'beta_2': 0.937732718856959, 'epsilon': 0.21154464145418167, 'learning_rate': 'constant', 'momentum': 0.7759584418813597, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1580597336011924}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6177815894797027</v>
+        <v>0.5583190394511149</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.23054316734460878, 'beta_2': 0.32559801588167764, 'epsilon': 0.7076519067695602, 'learning_rate': 'adaptive', 'momentum': 0.3709732519780914, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2795299433788142}</t>
+          <t>{'beta_1': 0.0849909989586575, 'beta_2': 0.45227613022865165, 'epsilon': 0.9317328660123573, 'learning_rate': 'constant', 'momentum': 0.3114860684923213, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6972742926194663}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.3256146369353917</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3424289445517873, 'beta_2': 0.08391295033087916, 'epsilon': 0.9385760775082453, 'learning_rate': 'adaptive', 'momentum': 0.8216719344295681, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6823265790625589}</t>
+          <t>{'beta_1': 0.31310710221217825, 'beta_2': 0.19065915415998982, 'epsilon': 0.9010217089966883, 'learning_rate': 'constant', 'momentum': 0.2711856325092864, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.19861675008444746}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4311034877072613</v>
+        <v>0.4353916523727844</v>
       </c>
     </row>
   </sheetData>
